--- a/categorytestcase.xlsx
+++ b/categorytestcase.xlsx
@@ -484,6 +484,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -496,13 +503,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,7 +801,7 @@
   <dimension ref="A1:AC980"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -847,10 +847,10 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1153,21 +1153,21 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="15.75">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="15"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="18"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1186,37 +1186,37 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="15.75">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16" t="s">
+      <c r="L12" s="18"/>
+      <c r="M12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="N12" s="2"/>
@@ -1237,13 +1237,13 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="31.5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8" t="s">
         <v>20</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="L13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="17"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1284,7 +1284,7 @@
       <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -1327,7 +1327,7 @@
       <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="B17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="9" t="s">
         <v>29</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="B18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="9" t="s">
         <v>37</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="B19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="9" t="s">
         <v>48</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="B20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="9" t="s">
         <v>50</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="B21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="9" t="s">
         <v>53</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="B22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
